--- a/datafernanda.xlsx
+++ b/datafernanda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estef\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE96925-2DF6-428C-B101-15F2B1FA12C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7384EE5-54B0-4D92-9812-3B461CF7D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{680CD400-A896-42A8-8971-A4FF188D0DDE}"/>
   </bookViews>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EA572B-841E-47F1-9B3B-A4E9D722F8B9}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
         <v>47.9</v>
       </c>
       <c r="E2" s="4">
-        <v>6.7</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>7.8</v>
       </c>
       <c r="E3" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="E4" s="4">
-        <v>1.4</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>2.7</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,9 @@
       <c r="D6" s="4">
         <v>51.6</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1116,7 +1118,9 @@
       <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>0.66500000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1132,7 +1136,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E8" s="4">
-        <v>5.3</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="4">
-        <v>1.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,7 +1170,7 @@
         <v>3.1</v>
       </c>
       <c r="E10" s="4">
-        <v>0.9</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,7 +1187,7 @@
         <v>2.9</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,7 +1204,7 @@
         <v>19.2</v>
       </c>
       <c r="E12" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,7 +1221,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E13" s="4">
-        <v>32</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,7 +1238,7 @@
         <v>6.1</v>
       </c>
       <c r="E14" s="4">
-        <v>0.5</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,7 +1255,7 @@
         <v>25.1</v>
       </c>
       <c r="E15" s="4">
-        <v>2.4</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,7 +1272,7 @@
         <v>11.3</v>
       </c>
       <c r="E16" s="4">
-        <v>9.8000000000000007</v>
+        <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,7 +1289,7 @@
         <v>2.6</v>
       </c>
       <c r="E17" s="4">
-        <v>2.4</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,7 +1306,7 @@
         <v>2.9</v>
       </c>
       <c r="E18" s="4">
-        <v>1.7</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1319,7 +1323,7 @@
         <v>11.2</v>
       </c>
       <c r="E19" s="4">
-        <v>37.799999999999997</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,7 +1340,7 @@
         <v>60.5</v>
       </c>
       <c r="E20" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,7 +1357,7 @@
         <v>24.8</v>
       </c>
       <c r="E21" s="4">
-        <v>1.2</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,7 +1374,7 @@
         <v>21.8</v>
       </c>
       <c r="E22" s="4">
-        <v>6.2</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="4">
-        <v>1.2</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1407,9 @@
       <c r="D24" s="4">
         <v>30</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>0.67600000000000005</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1419,7 +1425,7 @@
         <v>12.8</v>
       </c>
       <c r="E25" s="4">
-        <v>27.4</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1442,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E26" s="4">
-        <v>0.5</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1459,7 @@
         <v>5.9</v>
       </c>
       <c r="E27" s="4">
-        <v>1.3</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,7 +1476,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="4">
-        <v>1.3</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1493,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="4">
-        <v>6.1</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1510,7 @@
         <v>16.7</v>
       </c>
       <c r="E30" s="4">
-        <v>6.8</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,7 +1526,9 @@
       <c r="D31" s="4">
         <v>24</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>0.48399999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1536,7 +1544,7 @@
         <v>50.6</v>
       </c>
       <c r="E32" s="4">
-        <v>1.4</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,7 +1561,7 @@
         <v>4.3</v>
       </c>
       <c r="E33" s="4">
-        <v>1.8</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1578,7 @@
         <v>84.5</v>
       </c>
       <c r="E34" s="4">
-        <v>20.100000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,7 +1594,9 @@
       <c r="D35" s="4">
         <v>71.400000000000006</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>0.28799999999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1602,7 +1612,7 @@
         <v>6.2</v>
       </c>
       <c r="E36" s="4">
-        <v>4.4000000000000004</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,7 +1629,7 @@
         <v>7.4</v>
       </c>
       <c r="E37" s="4">
-        <v>0.5</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,7 +1646,7 @@
         <v>12.2</v>
       </c>
       <c r="E38" s="4">
-        <v>25.3</v>
+        <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1652,7 +1662,9 @@
       <c r="D39" s="4">
         <v>51.3</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5">
+        <v>0.48199999999999998</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1667,7 +1679,9 @@
       <c r="D40" s="4">
         <v>36.200000000000003</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5">
+        <v>0.54300000000000004</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1682,7 +1696,9 @@
       <c r="D41" s="4">
         <v>68.2</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5">
+        <v>0.496</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -1698,7 +1714,7 @@
         <v>7.6</v>
       </c>
       <c r="E42" s="4">
-        <v>11.3</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="4">
-        <v>0.6</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,7 +1748,7 @@
         <v>3.7</v>
       </c>
       <c r="E44" s="4">
-        <v>5</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,7 +1765,7 @@
         <v>1.9</v>
       </c>
       <c r="E45" s="4">
-        <v>1.3</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,7 +1782,7 @@
         <v>2.7</v>
       </c>
       <c r="E46" s="4">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,7 +1798,9 @@
       <c r="D47" s="4">
         <v>59.4</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5">
+        <v>0.45300000000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1798,7 +1816,7 @@
         <v>3.6</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,7 +1832,9 @@
       <c r="D49" s="4">
         <v>49.8</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>0.32500000000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -1830,7 +1850,7 @@
         <v>32.9</v>
       </c>
       <c r="E50" s="4">
-        <v>26.6</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1867,7 @@
         <v>24.1</v>
       </c>
       <c r="E51" s="4">
-        <v>10.1</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1884,7 @@
         <v>12.2</v>
       </c>
       <c r="E52" s="4">
-        <v>5.8</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,7 +1900,9 @@
       <c r="D53" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5">
+        <v>0.61799999999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1896,7 +1918,7 @@
         <v>11.8</v>
       </c>
       <c r="E54" s="4">
-        <v>52</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,7 +1934,9 @@
       <c r="D55" s="4">
         <v>62.6</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <v>0.46700000000000003</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -1927,7 +1951,9 @@
       <c r="D56" s="4">
         <v>31.3</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5">
+        <v>0.26900000000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -1943,7 +1969,7 @@
         <v>2.1</v>
       </c>
       <c r="E57" s="4">
-        <v>2.1</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,7 +1986,7 @@
         <v>43</v>
       </c>
       <c r="E58" s="4">
-        <v>11.6</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,7 +2002,9 @@
       <c r="D59" s="4">
         <v>39.1</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -1992,7 +2020,7 @@
         <v>21.6</v>
       </c>
       <c r="E60" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2009,7 +2037,7 @@
         <v>1.4</v>
       </c>
       <c r="E61" s="4">
-        <v>1.6</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,7 +2054,7 @@
         <v>3.4</v>
       </c>
       <c r="E62" s="4">
-        <v>1.2</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2042,7 +2070,9 @@
       <c r="D63" s="4">
         <v>32.700000000000003</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2057,7 +2087,9 @@
       <c r="D64" s="4">
         <v>39</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5">
+        <v>0.40600000000000003</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -2073,7 +2105,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E65" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,7 +2122,7 @@
         <v>3.1</v>
       </c>
       <c r="E66" s="4">
-        <v>0.9</v>
+        <v>0.94299999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,7 +2139,7 @@
         <v>34.9</v>
       </c>
       <c r="E67" s="4">
-        <v>2.1</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2156,7 @@
         <v>3.6</v>
       </c>
       <c r="E68" s="4">
-        <v>0.9</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,7 +2173,7 @@
         <v>13.7</v>
       </c>
       <c r="E69" s="4">
-        <v>10.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,7 +2190,7 @@
         <v>22.1</v>
       </c>
       <c r="E70" s="4">
-        <v>22.5</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,7 +2207,7 @@
         <v>64.900000000000006</v>
       </c>
       <c r="E71" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,7 +2223,9 @@
       <c r="D72" s="4">
         <v>54</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5">
+        <v>0.41399999999999998</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -2207,7 +2241,7 @@
         <v>25.1</v>
       </c>
       <c r="E73" s="4">
-        <v>14.2</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2258,7 @@
         <v>49.5</v>
       </c>
       <c r="E74" s="4">
-        <v>6.7</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,7 +2275,7 @@
         <v>15.1</v>
       </c>
       <c r="E75" s="4">
-        <v>38.9</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,7 +2292,7 @@
         <v>3.6</v>
       </c>
       <c r="E76" s="4">
-        <v>2.5</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,7 +2309,7 @@
         <v>1.5</v>
       </c>
       <c r="E77" s="4">
-        <v>0.9</v>
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,7 +2326,7 @@
         <v>29.9</v>
       </c>
       <c r="E78" s="4">
-        <v>3.1</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,7 +2343,7 @@
         <v>21.1</v>
       </c>
       <c r="E79" s="4">
-        <v>0.4</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,7 +2360,7 @@
         <v>12.4</v>
       </c>
       <c r="E80" s="4">
-        <v>2.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,7 +2377,7 @@
         <v>22.5</v>
       </c>
       <c r="E81" s="4">
-        <v>10.1</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,7 +2394,7 @@
         <v>3.1</v>
       </c>
       <c r="E82" s="4">
-        <v>0.9</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="4">
-        <v>1.5</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +2428,7 @@
         <v>2.6</v>
       </c>
       <c r="E84" s="4">
-        <v>0.6</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,7 +2445,7 @@
         <v>12.4</v>
       </c>
       <c r="E85" s="4">
-        <v>43.9</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,7 +2462,7 @@
         <v>1.8</v>
       </c>
       <c r="E86" s="4">
-        <v>0.3</v>
+        <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2445,7 +2479,7 @@
         <v>13.9</v>
       </c>
       <c r="E87" s="4">
-        <v>1.4</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,7 +2496,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E88" s="4">
-        <v>5.0999999999999996</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,7 +2513,7 @@
         <v>30.6</v>
       </c>
       <c r="E89" s="4">
-        <v>4.9000000000000004</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,7 +2529,9 @@
       <c r="D90" s="4">
         <v>41.2</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5">
+        <v>0.53400000000000003</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -2511,7 +2547,7 @@
         <v>2.7</v>
       </c>
       <c r="E91" s="4">
-        <v>0.6</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,7 +2563,9 @@
       <c r="D92" s="4">
         <v>6.7</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5">
+        <v>0.86499999999999999</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
@@ -2543,7 +2581,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E93" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,7 +2597,9 @@
       <c r="D94" s="4">
         <v>37.6</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -2575,7 +2615,7 @@
         <v>3.3</v>
       </c>
       <c r="E95" s="4">
-        <v>4.4000000000000004</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,7 +2632,7 @@
         <v>6.4</v>
       </c>
       <c r="E96" s="4">
-        <v>2.5</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,7 +2649,7 @@
         <v>65.7</v>
       </c>
       <c r="E97" s="4">
-        <v>43.6</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,7 +2665,9 @@
       <c r="D98" s="4">
         <v>53.5</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5">
+        <v>0.53200000000000003</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -2641,7 +2683,7 @@
         <v>3.3</v>
       </c>
       <c r="E99" s="4">
-        <v>4.5999999999999996</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,7 +2700,7 @@
         <v>1.9</v>
       </c>
       <c r="E100" s="3">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,7 +2716,9 @@
       <c r="D101" s="4">
         <v>38.200000000000003</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5">
+        <v>0.83199999999999996</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -2689,7 +2733,9 @@
       <c r="D102" s="4">
         <v>35.299999999999997</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5">
+        <v>0.89800000000000002</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -2705,7 +2751,7 @@
         <v>6.7</v>
       </c>
       <c r="E103" s="3">
-        <v>2.1</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,7 +2768,7 @@
         <v>7.4</v>
       </c>
       <c r="E104" s="4">
-        <v>0.7</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,7 +2784,9 @@
       <c r="D105" s="4">
         <v>62</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -2754,7 +2802,7 @@
         <v>6.1</v>
       </c>
       <c r="E106" s="4">
-        <v>1.6</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,7 +2818,9 @@
       <c r="D107" s="4">
         <v>27.4</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5">
+        <v>0.57299999999999995</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -2785,7 +2835,9 @@
       <c r="D108" s="4">
         <v>51.5</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5">
+        <v>0.28599999999999998</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -2801,7 +2853,7 @@
         <v>13.6</v>
       </c>
       <c r="E109" s="4">
-        <v>2.9</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2818,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="4">
-        <v>29.1</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,7 +2886,9 @@
       <c r="D111" s="4">
         <v>25.6</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5">
+        <v>0.39600000000000002</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -2850,7 +2904,7 @@
         <v>13.6</v>
       </c>
       <c r="E112" s="4">
-        <v>4.0999999999999996</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,7 +2921,7 @@
         <v>14</v>
       </c>
       <c r="E113" s="4">
-        <v>6.2</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,7 +2936,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E114" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,7 +2953,7 @@
         <v>19.2</v>
       </c>
       <c r="E115" s="4">
-        <v>1.4</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2915,7 +2969,9 @@
       <c r="D116" s="4">
         <v>54</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5">
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -2931,7 +2987,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="E117" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,7 +3003,9 @@
       <c r="D118" s="4">
         <v>29</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5">
+        <v>0.56899999999999995</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -2963,7 +3021,7 @@
         <v>26.7</v>
       </c>
       <c r="E119" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,7 +3038,7 @@
         <v>3.3</v>
       </c>
       <c r="E120" s="4">
-        <v>0.6</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2997,7 +3055,7 @@
         <v>4.7</v>
       </c>
       <c r="E121" s="4">
-        <v>0.7</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3013,9 +3071,7 @@
       <c r="D122" s="4">
         <v>15.7</v>
       </c>
-      <c r="E122" s="4">
-        <v>7.2</v>
-      </c>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
@@ -3030,7 +3086,9 @@
       <c r="D123" s="4">
         <v>48</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5">
+        <v>0.52100000000000002</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -3046,7 +3104,7 @@
         <v>75.7</v>
       </c>
       <c r="E124" s="4">
-        <v>34.5</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,7 +3121,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E125" s="4">
-        <v>1.2</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,7 +3138,7 @@
         <v>2.1</v>
       </c>
       <c r="E126" s="4">
-        <v>0.5</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,7 +3155,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E127" s="4">
-        <v>0.3</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3114,7 +3172,7 @@
         <v>57.2</v>
       </c>
       <c r="E128" s="4">
-        <v>3.9</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,7 +3189,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E129" s="4">
-        <v>11.2</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,7 +3204,7 @@
         <v>17.3</v>
       </c>
       <c r="E130" s="4">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,7 +3221,7 @@
         <v>13.1</v>
       </c>
       <c r="E131" s="4">
-        <v>9.4</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,7 +3237,9 @@
       <c r="D132" s="4">
         <v>38</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5">
+        <v>0.40200000000000002</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -3195,7 +3255,7 @@
         <v>17.2</v>
       </c>
       <c r="E133" s="4">
-        <v>7.1</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,7 +3272,7 @@
         <v>11.1</v>
       </c>
       <c r="E134" s="4">
-        <v>7.9</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,7 +3289,7 @@
         <v>22.5</v>
       </c>
       <c r="E135" s="4">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,7 +3306,7 @@
         <v>3.8</v>
       </c>
       <c r="E136" s="4">
-        <v>0.7</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3263,7 +3323,7 @@
         <v>3.1</v>
       </c>
       <c r="E137" s="4">
-        <v>0.8</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,7 +3340,7 @@
         <v>5.8</v>
       </c>
       <c r="E138" s="4">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,7 +3357,7 @@
         <v>6.1</v>
       </c>
       <c r="E139" s="4">
-        <v>1.3</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,7 +3374,7 @@
         <v>6.1</v>
       </c>
       <c r="E140" s="4">
-        <v>8.1999999999999993</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,7 +3391,7 @@
         <v>27</v>
       </c>
       <c r="E141" s="4">
-        <v>2.6</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,7 +3407,9 @@
       <c r="D142" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
@@ -3363,7 +3425,7 @@
         <v>14.9</v>
       </c>
       <c r="E143" s="4">
-        <v>21.4</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +3442,7 @@
         <v>14.8</v>
       </c>
       <c r="E144" s="4">
-        <v>36.5</v>
+        <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,7 +3459,7 @@
         <v>13.6</v>
       </c>
       <c r="E145" s="4">
-        <v>3.1</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3413,7 +3475,9 @@
       <c r="D146" s="4">
         <v>24.4</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5">
+        <v>0.67300000000000004</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -3429,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="4">
-        <v>1.3</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3446,7 +3510,7 @@
         <v>31.8</v>
       </c>
       <c r="E148" s="4">
-        <v>0.3</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3463,7 +3527,7 @@
         <v>4.8</v>
       </c>
       <c r="E149" s="4">
-        <v>1.2</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,9 +3543,7 @@
       <c r="D150" s="4">
         <v>12.4</v>
       </c>
-      <c r="E150" s="4">
-        <v>12.5</v>
-      </c>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -3497,7 +3559,7 @@
         <v>78.5</v>
       </c>
       <c r="E151" s="4">
-        <v>1.7</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,7 +3576,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E152" s="4">
-        <v>0.2</v>
+        <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3531,7 +3593,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E153" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,7 +3610,7 @@
         <v>1.7</v>
       </c>
       <c r="E154" s="4">
-        <v>0.5</v>
+        <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,7 +3626,9 @@
       <c r="D155" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5">
+        <v>0.72599999999999998</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -3580,7 +3644,7 @@
         <v>28.5</v>
       </c>
       <c r="E156" s="4">
-        <v>36.4</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3596,7 +3660,9 @@
       <c r="D157" s="4">
         <v>63.7</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -3612,7 +3678,7 @@
         <v>2.5</v>
       </c>
       <c r="E158" s="4">
-        <v>0.6</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3629,7 +3695,7 @@
         <v>6.4</v>
       </c>
       <c r="E159" s="4">
-        <v>2.4</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,7 +3711,9 @@
       <c r="D160" s="4">
         <v>42.1</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5">
+        <v>0.47399999999999998</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -3661,7 +3729,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="E161" s="4">
-        <v>5.4</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,7 +3746,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E162" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,7 +3763,7 @@
         <v>3.7</v>
       </c>
       <c r="E163" s="4">
-        <v>0.6</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,7 +3778,7 @@
         <v>14</v>
       </c>
       <c r="E164" s="4">
-        <v>0.9</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,7 +3794,9 @@
       <c r="D165" s="4">
         <v>30.4</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5">
+        <v>0.34499999999999997</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -3742,7 +3812,7 @@
         <v>37.6</v>
       </c>
       <c r="E166" s="4">
-        <v>6.5</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,7 +3829,7 @@
         <v>7.8</v>
       </c>
       <c r="E167" s="4">
-        <v>2.6</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,7 +3846,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="E168" s="4">
-        <v>4.0999999999999996</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,7 +3862,9 @@
       <c r="D169" s="4">
         <v>47.4</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="5">
+        <v>0.41599999999999998</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -3807,7 +3879,9 @@
       <c r="D170" s="4">
         <v>13.4</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="5">
+        <v>0.68200000000000005</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
@@ -3823,7 +3897,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E171" s="4">
-        <v>30.6</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,7 +3913,9 @@
       <c r="D172" s="4">
         <v>14.6</v>
       </c>
-      <c r="E172" s="5"/>
+      <c r="E172" s="5">
+        <v>0.68200000000000005</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
@@ -3855,7 +3931,7 @@
         <v>9.1</v>
       </c>
       <c r="E173" s="4">
-        <v>2.6</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3871,7 +3947,9 @@
       <c r="D174" s="4">
         <v>39.299999999999997</v>
       </c>
-      <c r="E174" s="5"/>
+      <c r="E174" s="5">
+        <v>0.51700000000000002</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
@@ -3887,7 +3965,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="E175" s="4">
-        <v>10.5</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,7 +3982,7 @@
         <v>7.5</v>
       </c>
       <c r="E176" s="4">
-        <v>6.2</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +3999,7 @@
         <v>6.5</v>
       </c>
       <c r="E177" s="4">
-        <v>0.5</v>
+        <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,7 +4016,7 @@
         <v>3.6</v>
       </c>
       <c r="E178" s="4">
-        <v>1.2</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,7 +4033,7 @@
         <v>5.6</v>
       </c>
       <c r="E179" s="4">
-        <v>5</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,9 +4049,7 @@
       <c r="D180" s="4">
         <v>6.4</v>
       </c>
-      <c r="E180" s="4">
-        <v>12.1</v>
-      </c>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -3989,7 +4065,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="E181" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4081,9 @@
       <c r="D182" s="4">
         <v>22.3</v>
       </c>
-      <c r="E182" s="5"/>
+      <c r="E182" s="5">
+        <v>0.79900000000000004</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
@@ -4021,7 +4099,7 @@
         <v>21.4</v>
       </c>
       <c r="E183" s="4">
-        <v>36.700000000000003</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4037,7 +4115,9 @@
       <c r="D184" s="4">
         <v>16.5</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -4053,7 +4133,7 @@
         <v>42.9</v>
       </c>
       <c r="E185" s="4">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,7 +4150,7 @@
         <v>40.4</v>
       </c>
       <c r="E186" s="4">
-        <v>5.4</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,7 +4166,9 @@
       <c r="D187" s="4">
         <v>33.9</v>
       </c>
-      <c r="E187" s="5"/>
+      <c r="E187" s="5">
+        <v>0.72899999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
